--- a/data/Template_structure.xlsx
+++ b/data/Template_structure.xlsx
@@ -116,7 +116,7 @@
     <t xml:space="preserve">"Prm9"</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object1</t>
+    <t xml:space="preserve">"DB_FB_Std".Object1</t>
   </si>
   <si>
     <t xml:space="preserve">Object2</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">FB2</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object2</t>
+    <t xml:space="preserve">"DB_FB_Std".Object2</t>
   </si>
   <si>
     <t xml:space="preserve">Object3</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">FB3</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object3</t>
+    <t xml:space="preserve">"DB_FB_Std".Object3</t>
   </si>
   <si>
     <t xml:space="preserve">Object4</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">FB4</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object4</t>
+    <t xml:space="preserve">"DB_FB_Std".Object4</t>
   </si>
   <si>
     <t xml:space="preserve">Object5</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">FB5</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object5</t>
+    <t xml:space="preserve">"DB_FB_Std".Object5</t>
   </si>
   <si>
     <t xml:space="preserve">Object6</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">FB6</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object6</t>
+    <t xml:space="preserve">"DB_FB_Std".Object6</t>
   </si>
   <si>
     <t xml:space="preserve">Object7</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">FB7</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object7</t>
+    <t xml:space="preserve">"DB_FB_Std".Object7</t>
   </si>
   <si>
     <t xml:space="preserve">Object8</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">FB8</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object8</t>
+    <t xml:space="preserve">"DB_FB_Std".Object8</t>
   </si>
   <si>
     <t xml:space="preserve">Object9</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">FB9</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object9</t>
+    <t xml:space="preserve">"DB_FB_Std".Object9</t>
   </si>
   <si>
     <t xml:space="preserve">Object10</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">FB10</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object10</t>
+    <t xml:space="preserve">"DB_FB_Std".Object10</t>
   </si>
   <si>
     <t xml:space="preserve">Object11</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">FB11</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object11</t>
+    <t xml:space="preserve">"DB_FB_Std".Object11</t>
   </si>
   <si>
     <t xml:space="preserve">Object12</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">FB12</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object12</t>
+    <t xml:space="preserve">"DB_FB_Std".Object12</t>
   </si>
   <si>
     <t xml:space="preserve">Object13</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">FB13</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object13</t>
+    <t xml:space="preserve">"DB_FB_Std".Object13</t>
   </si>
   <si>
     <t xml:space="preserve">Object14</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">FB14</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object14</t>
+    <t xml:space="preserve">"DB_FB_Std".Object14</t>
   </si>
   <si>
     <t xml:space="preserve">Object15</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">FB15</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object15</t>
+    <t xml:space="preserve">"DB_FB_Std".Object15</t>
   </si>
   <si>
     <t xml:space="preserve">Object16</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">FB16</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object16</t>
+    <t xml:space="preserve">"DB_FB_Std".Object16</t>
   </si>
   <si>
     <t xml:space="preserve">Object17</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">FB17</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object17</t>
+    <t xml:space="preserve">"DB_FB_Std".Object17</t>
   </si>
   <si>
     <t xml:space="preserve">Object18</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">FB18</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object18</t>
+    <t xml:space="preserve">"DB_FB_Std".Object18</t>
   </si>
   <si>
     <t xml:space="preserve">Object19</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">FB19</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object19</t>
+    <t xml:space="preserve">"DB_FB_Std".Object19</t>
   </si>
   <si>
     <t xml:space="preserve">Object20</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">FB20</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object20</t>
+    <t xml:space="preserve">"DB_FB_Std".Object20</t>
   </si>
   <si>
     <t xml:space="preserve">Object21</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">FB21</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object21</t>
+    <t xml:space="preserve">"DB_FB_Std".Object21</t>
   </si>
   <si>
     <t xml:space="preserve">Object22</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">FB22</t>
   </si>
   <si>
-    <t xml:space="preserve">"DB".Object22</t>
+    <t xml:space="preserve">"DB_FB_Std".Object22</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -491,8 +491,8 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -505,7 +505,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="9.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="10" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1608,7 +1608,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1704,7 +1704,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1799,7 +1799,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1807,7 +1807,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1851,7 +1851,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1903,7 +1903,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1955,7 +1955,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2007,7 +2007,7 @@
   </sheetPr>
   <dimension ref="B3:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>

--- a/data/Template_structure.xlsx
+++ b/data/Template_structure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Objects" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="114">
   <si>
     <t xml:space="preserve">Instanzname</t>
   </si>
@@ -326,12 +326,18 @@
     <t xml:space="preserve">Input Parameter 2</t>
   </si>
   <si>
+    <t xml:space="preserve">IN_Prm_2ö</t>
+  </si>
+  <si>
     <t xml:space="preserve">Input Parameter 3</t>
   </si>
   <si>
     <t xml:space="preserve">Input Parameter 4</t>
   </si>
   <si>
+    <t xml:space="preserve">IN_Prm_4ä</t>
+  </si>
+  <si>
     <t xml:space="preserve">Input Parameter 5</t>
   </si>
   <si>
@@ -363,12 +369,6 @@
   </si>
   <si>
     <t xml:space="preserve">REAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIME</t>
   </si>
 </sst>
 </file>
@@ -491,8 +491,8 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1608,14 +1608,14 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
@@ -1655,13 +1655,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1672,18 +1672,18 @@
         <v>96</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1704,8 +1704,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1734,7 +1734,7 @@
         <v>96</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,7 +1745,7 @@
         <v>96</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1756,7 +1756,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,7 +1767,7 @@
         <v>96</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1778,7 +1778,7 @@
         <v>96</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1799,8 +1799,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1827,10 +1827,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +1851,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1876,13 +1876,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +1903,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1928,13 +1928,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1955,7 +1955,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1980,13 +1980,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2005,47 +2005,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:E6"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
-  <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3" type="list">
-      <formula1>Datentypen!$E$3:$E$13</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/Template_structure.xlsx
+++ b/data/Template_structure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Objects" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="112">
   <si>
     <t xml:space="preserve">Instanzname</t>
   </si>
@@ -326,16 +326,10 @@
     <t xml:space="preserve">Input Parameter 2</t>
   </si>
   <si>
-    <t xml:space="preserve">IN_Prm_2ö</t>
-  </si>
-  <si>
     <t xml:space="preserve">Input Parameter 3</t>
   </si>
   <si>
     <t xml:space="preserve">Input Parameter 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN_Prm_4ä</t>
   </si>
   <si>
     <t xml:space="preserve">Input Parameter 5</t>
@@ -491,8 +485,8 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1608,8 +1602,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1655,13 +1649,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1672,18 +1666,18 @@
         <v>96</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1728,7 @@
         <v>96</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,7 +1739,7 @@
         <v>96</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1756,7 +1750,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,7 +1761,7 @@
         <v>96</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1778,7 +1772,7 @@
         <v>96</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1827,10 +1821,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1876,13 +1870,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1928,13 +1922,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1980,13 +1974,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="C2" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/Template_structure.xlsx
+++ b/data/Template_structure.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="111">
   <si>
     <t xml:space="preserve">Instanzname</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bool</t>
   </si>
   <si>
     <t xml:space="preserve">REAL</t>
@@ -486,7 +483,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1603,7 +1600,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1699,7 +1696,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1794,7 +1791,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1846,12 +1843,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
@@ -1873,7 +1870,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>109</v>
@@ -1898,7 +1895,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1925,7 +1922,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>109</v>
@@ -1950,7 +1947,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1977,7 +1974,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>109</v>

--- a/data/Template_structure.xlsx
+++ b/data/Template_structure.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="75">
   <si>
     <t xml:space="preserve">Instanzname</t>
   </si>
@@ -198,114 +198,6 @@
   </si>
   <si>
     <t xml:space="preserve">"DB_FB_Std".Object10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"DB_FB_Std".Object11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"DB_FB_Std".Object12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"DB_FB_Std".Object13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"DB_FB_Std".Object14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"DB_FB_Std".Object15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"DB_FB_Std".Object16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"DB_FB_Std".Object17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"DB_FB_Std".Object18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"DB_FB_Std".Object19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"DB_FB_Std".Object20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"DB_FB_Std".Object21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"DB_FB_Std".Object22</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -480,10 +372,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1015,570 +907,6 @@
       </c>
       <c r="O11" s="0" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" s="0" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1613,13 +941,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,10 +955,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,10 +966,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1649,10 +977,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,10 +988,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1671,10 +999,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1708,13 +1036,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1722,10 +1050,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,10 +1061,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1744,10 +1072,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,10 +1083,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,10 +1094,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1804,13 +1132,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,10 +1146,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1856,24 +1184,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1908,24 +1236,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1960,24 +1288,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
